--- a/Output_testing/R1_201907/Country/HKD/MN/VIRGIN ISLANDS, U.S._201907_HKD_MN.xlsx
+++ b/Output_testing/R1_201907/Country/HKD/MN/VIRGIN ISLANDS, U.S._201907_HKD_MN.xlsx
@@ -641,7 +641,7 @@
         </is>
       </c>
       <c r="B10" s="1" t="n">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>191</v>

--- a/Output_testing/R1_201907/Country/HKD/MN/VIRGIN ISLANDS, U.S._201907_HKD_MN.xlsx
+++ b/Output_testing/R1_201907/Country/HKD/MN/VIRGIN ISLANDS, U.S._201907_HKD_MN.xlsx
@@ -652,11 +652,15 @@
       <c r="E10" s="8" t="n">
         <v>1.807094</v>
       </c>
-      <c r="F10" s="8" t="n">
-        <v>0.035441</v>
+      <c r="F10" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
       </c>
-      <c r="G10" s="8" t="n">
-        <v>0.065887</v>
+      <c r="G10" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
       </c>
       <c r="H10" s="9" t="n">
         <v>253.686505614261</v>

--- a/Output_testing/R1_201907/Country/HKD/MN/VIRGIN ISLANDS, U.S._201907_HKD_MN.xlsx
+++ b/Output_testing/R1_201907/Country/HKD/MN/VIRGIN ISLANDS, U.S._201907_HKD_MN.xlsx
@@ -814,136 +814,529 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="11" t="n"/>
-      <c r="C18" s="12" t="n"/>
-      <c r="D18" s="13" t="n"/>
-      <c r="E18" s="12" t="n"/>
-      <c r="F18" s="13" t="n"/>
-      <c r="G18" s="12" t="n"/>
-      <c r="H18" s="13" t="n"/>
-      <c r="I18" s="12" t="n"/>
-      <c r="J18" s="13" t="n"/>
-      <c r="K18" s="13" t="n"/>
+      <c r="A18" s="11" t="inlineStr">
+        <is>
+          <t>897</t>
+        </is>
+      </c>
+      <c r="B18" s="1" t="inlineStr">
+        <is>
+          <t>JEWELLERY, GOLDSMITHS' AND SILVERSMITHS' WARES, AND OTHER ARTICLES OF PRECIOUS OR SEMI-PRECIOUS MATERIALS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C18" s="8" t="n">
+        <v>45.365219</v>
+      </c>
+      <c r="D18" s="9" t="n">
+        <v>93.69905454774681</v>
+      </c>
+      <c r="E18" s="8" t="n">
+        <v>15.727248</v>
+      </c>
+      <c r="F18" s="9" t="n">
+        <v>87.11635025748687</v>
+      </c>
+      <c r="G18" s="8" t="n">
+        <v>20.103411</v>
+      </c>
+      <c r="H18" s="9" t="n">
+        <v>83.60454175932998</v>
+      </c>
+      <c r="I18" s="8" t="n">
+        <v>12.707837</v>
+      </c>
+      <c r="J18" s="9" t="n">
+        <v>80.10889225152749</v>
+      </c>
+      <c r="K18" s="9" t="n">
+        <v>2.46488125959563</v>
+      </c>
     </row>
     <row r="19">
-      <c r="A19" s="11" t="n"/>
-      <c r="C19" s="12" t="n"/>
-      <c r="D19" s="13" t="n"/>
-      <c r="E19" s="12" t="n"/>
-      <c r="F19" s="13" t="n"/>
-      <c r="G19" s="12" t="n"/>
-      <c r="H19" s="13" t="n"/>
-      <c r="I19" s="12" t="n"/>
-      <c r="J19" s="13" t="n"/>
-      <c r="K19" s="13" t="n"/>
+      <c r="A19" s="11" t="inlineStr">
+        <is>
+          <t>667</t>
+        </is>
+      </c>
+      <c r="B19" s="1" t="inlineStr">
+        <is>
+          <t>PEARLS, PRECIOUS AND SEMI-PRECIOUS STONES, UNWORKED OR WORKED</t>
+        </is>
+      </c>
+      <c r="C19" s="8" t="n">
+        <v>0.840256</v>
+      </c>
+      <c r="D19" s="9" t="n">
+        <v>1.735496808206118</v>
+      </c>
+      <c r="E19" s="8" t="n">
+        <v>1.154637</v>
+      </c>
+      <c r="F19" s="9" t="n">
+        <v>6.395763665216818</v>
+      </c>
+      <c r="G19" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H19" s="9" t="n">
+        <v>1.362398046796959</v>
+      </c>
+      <c r="I19" s="8" t="n">
+        <v>1.338908</v>
+      </c>
+      <c r="J19" s="9" t="n">
+        <v>8.440337777916744</v>
+      </c>
+      <c r="K19" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="20">
-      <c r="A20" s="11" t="n"/>
-      <c r="C20" s="12" t="n"/>
-      <c r="D20" s="13" t="n"/>
-      <c r="E20" s="12" t="n"/>
-      <c r="F20" s="13" t="n"/>
-      <c r="G20" s="12" t="n"/>
-      <c r="H20" s="13" t="n"/>
-      <c r="I20" s="12" t="n"/>
-      <c r="J20" s="13" t="n"/>
-      <c r="K20" s="13" t="n"/>
+      <c r="A20" s="11" t="inlineStr">
+        <is>
+          <t>885</t>
+        </is>
+      </c>
+      <c r="B20" s="1" t="inlineStr">
+        <is>
+          <t>WATCHES AND CLOCKS</t>
+        </is>
+      </c>
+      <c r="C20" s="8" t="n">
+        <v>0.65396</v>
+      </c>
+      <c r="D20" s="9" t="n">
+        <v>1.350713940387778</v>
+      </c>
+      <c r="E20" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F20" s="9" t="n">
+        <v>0.3369494514337745</v>
+      </c>
+      <c r="G20" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H20" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I20" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J20" s="9" t="n">
+        <v>3.141162403257248</v>
+      </c>
+      <c r="K20" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="21">
-      <c r="A21" s="11" t="n"/>
-      <c r="C21" s="12" t="n"/>
-      <c r="D21" s="13" t="n"/>
-      <c r="E21" s="12" t="n"/>
-      <c r="F21" s="13" t="n"/>
-      <c r="G21" s="12" t="n"/>
-      <c r="H21" s="13" t="n"/>
-      <c r="I21" s="12" t="n"/>
-      <c r="J21" s="13" t="n"/>
-      <c r="K21" s="13" t="n"/>
+      <c r="A21" s="11" t="inlineStr">
+        <is>
+          <t>931</t>
+        </is>
+      </c>
+      <c r="B21" s="1" t="inlineStr">
+        <is>
+          <t>SPECIAL TRANSACTIONS AND COMMODITIES NOT CLASSIFIED ACCORDING TO KIND</t>
+        </is>
+      </c>
+      <c r="C21" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D21" s="9" t="n">
+        <v>0.6541304622035453</v>
+      </c>
+      <c r="E21" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F21" s="9" t="n">
+        <v>1.716265297258601</v>
+      </c>
+      <c r="G21" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H21" s="9" t="n">
+        <v>2.040095424421925</v>
+      </c>
+      <c r="I21" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J21" s="9" t="n">
+        <v>2.177504620125922</v>
+      </c>
+      <c r="K21" s="9" t="n">
+        <v>29.51560349902327</v>
+      </c>
     </row>
     <row r="22">
-      <c r="A22" s="11" t="n"/>
-      <c r="C22" s="12" t="n"/>
-      <c r="D22" s="13" t="n"/>
-      <c r="E22" s="12" t="n"/>
-      <c r="F22" s="13" t="n"/>
-      <c r="G22" s="12" t="n"/>
-      <c r="H22" s="13" t="n"/>
-      <c r="I22" s="12" t="n"/>
-      <c r="J22" s="13" t="n"/>
-      <c r="K22" s="13" t="n"/>
+      <c r="A22" s="11" t="inlineStr">
+        <is>
+          <t>778</t>
+        </is>
+      </c>
+      <c r="B22" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRICAL MACHINERY AND APPARATUS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C22" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D22" s="9" t="n">
+        <v>0.09533856011737638</v>
+      </c>
+      <c r="E22" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F22" s="9" t="n">
+        <v>0.8922097984767537</v>
+      </c>
+      <c r="G22" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H22" s="9" t="n">
+        <v>0.167530045534703</v>
+      </c>
+      <c r="I22" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J22" s="9" t="n">
+        <v>0.8451760438811731</v>
+      </c>
+      <c r="K22" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="23">
-      <c r="A23" s="11" t="n"/>
-      <c r="C23" s="12" t="n"/>
-      <c r="D23" s="13" t="n"/>
-      <c r="E23" s="12" t="n"/>
-      <c r="F23" s="13" t="n"/>
-      <c r="G23" s="12" t="n"/>
-      <c r="H23" s="13" t="n"/>
-      <c r="I23" s="12" t="n"/>
-      <c r="J23" s="13" t="n"/>
-      <c r="K23" s="13" t="n"/>
+      <c r="A23" s="11" t="inlineStr">
+        <is>
+          <t>666</t>
+        </is>
+      </c>
+      <c r="B23" s="1" t="inlineStr">
+        <is>
+          <t>POTTERY</t>
+        </is>
+      </c>
+      <c r="C23" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D23" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E23" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F23" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G23" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H23" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I23" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J23" s="9" t="n">
+        <v>0.8108135027450949</v>
+      </c>
+      <c r="K23" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="24">
-      <c r="A24" s="11" t="n"/>
-      <c r="C24" s="12" t="n"/>
-      <c r="D24" s="13" t="n"/>
-      <c r="E24" s="12" t="n"/>
-      <c r="F24" s="13" t="n"/>
-      <c r="G24" s="12" t="n"/>
-      <c r="H24" s="13" t="n"/>
-      <c r="I24" s="12" t="n"/>
-      <c r="J24" s="13" t="n"/>
-      <c r="K24" s="13" t="n"/>
+      <c r="A24" s="11" t="inlineStr">
+        <is>
+          <t>745</t>
+        </is>
+      </c>
+      <c r="B24" s="1" t="inlineStr">
+        <is>
+          <t>OTHER NON-ELECTRICAL MACHINERY, TOOLS AND MECHANICAL APPARATUS, AND PARTS THEREOF, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C24" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D24" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="E24" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F24" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G24" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H24" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I24" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J24" s="9" t="n">
+        <v>0.6128270177953963</v>
+      </c>
+      <c r="K24" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="25">
-      <c r="A25" s="11" t="n"/>
-      <c r="C25" s="12" t="n"/>
-      <c r="D25" s="13" t="n"/>
-      <c r="E25" s="12" t="n"/>
-      <c r="F25" s="13" t="n"/>
-      <c r="G25" s="12" t="n"/>
-      <c r="H25" s="13" t="n"/>
-      <c r="I25" s="12" t="n"/>
-      <c r="J25" s="13" t="n"/>
-      <c r="K25" s="13" t="n"/>
+      <c r="A25" s="11" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="B25" s="1" t="inlineStr">
+        <is>
+          <t>TELECOMMUNICATIONS EQUIPMENT, N.E.S.; AND PARTS, N.E.S., AND ACCESSORIES OF APPARATUS FALLING WITHIN DIVISION 76</t>
+        </is>
+      </c>
+      <c r="C25" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D25" s="9" t="n">
+        <v>0.08587265702116684</v>
+      </c>
+      <c r="E25" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F25" s="9" t="n">
+        <v>0.08422351486191913</v>
+      </c>
+      <c r="G25" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H25" s="9" t="n">
+        <v>0.2999770937471253</v>
+      </c>
+      <c r="I25" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J25" s="9" t="n">
+        <v>0.5929697430607335</v>
+      </c>
+      <c r="K25" s="9" t="n">
+        <v>263.5323671497585</v>
+      </c>
     </row>
     <row r="26">
-      <c r="A26" s="11" t="n"/>
-      <c r="C26" s="12" t="n"/>
-      <c r="D26" s="13" t="n"/>
-      <c r="E26" s="12" t="n"/>
-      <c r="F26" s="13" t="n"/>
-      <c r="G26" s="12" t="n"/>
-      <c r="H26" s="13" t="n"/>
-      <c r="I26" s="12" t="n"/>
-      <c r="J26" s="13" t="n"/>
-      <c r="K26" s="13" t="n"/>
+      <c r="A26" s="11" t="inlineStr">
+        <is>
+          <t>893</t>
+        </is>
+      </c>
+      <c r="B26" s="1" t="inlineStr">
+        <is>
+          <t>ARTICLES, N.E.S. OF PLASTICS</t>
+        </is>
+      </c>
+      <c r="C26" s="8" t="n">
+        <v>0.588584</v>
+      </c>
+      <c r="D26" s="9" t="n">
+        <v>1.215683855112239</v>
+      </c>
+      <c r="E26" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F26" s="9" t="n">
+        <v>0.6088133192024684</v>
+      </c>
+      <c r="G26" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H26" s="9" t="n">
+        <v>0.4735539242636438</v>
+      </c>
+      <c r="I26" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J26" s="9" t="n">
+        <v>0.3689292528798092</v>
+      </c>
+      <c r="K26" s="9" t="n">
+        <v>215.6804574141</v>
+      </c>
     </row>
     <row r="27">
-      <c r="A27" s="11" t="n"/>
-      <c r="C27" s="12" t="n"/>
-      <c r="D27" s="13" t="n"/>
-      <c r="E27" s="12" t="n"/>
-      <c r="F27" s="13" t="n"/>
-      <c r="G27" s="12" t="n"/>
-      <c r="H27" s="13" t="n"/>
-      <c r="I27" s="12" t="n"/>
-      <c r="J27" s="13" t="n"/>
-      <c r="K27" s="13" t="n"/>
+      <c r="A27" s="11" t="inlineStr">
+        <is>
+          <t>884</t>
+        </is>
+      </c>
+      <c r="B27" s="1" t="inlineStr">
+        <is>
+          <t>OPTICAL GOODS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C27" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D27" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E27" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F27" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G27" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H27" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I27" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J27" s="9" t="n">
+        <v>0.3548904748372397</v>
+      </c>
+      <c r="K27" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="28">
-      <c r="A28" s="11" t="n"/>
-      <c r="C28" s="12" t="n"/>
-      <c r="D28" s="13" t="n"/>
-      <c r="E28" s="12" t="n"/>
-      <c r="F28" s="13" t="n"/>
-      <c r="G28" s="12" t="n"/>
-      <c r="H28" s="13" t="n"/>
-      <c r="I28" s="12" t="n"/>
-      <c r="J28" s="13" t="n"/>
-      <c r="K28" s="13" t="n"/>
+      <c r="A28" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B28" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C28" s="8" t="n">
+        <v>0.541083</v>
+      </c>
+      <c r="D28" s="9" t="n">
+        <v>1.117573476981528</v>
+      </c>
+      <c r="E28" s="8" t="n">
+        <v>0.514411</v>
+      </c>
+      <c r="F28" s="9" t="n">
+        <v>2.849424696062787</v>
+      </c>
+      <c r="G28" s="8" t="n">
+        <v>2.897981</v>
+      </c>
+      <c r="H28" s="9" t="n">
+        <v>12.05190370590567</v>
+      </c>
+      <c r="I28" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J28" s="9" t="n">
+        <v>2.546496911973142</v>
+      </c>
+      <c r="K28" s="9" t="n">
+        <v>-84.44123905905462</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="11" t="n"/>
@@ -975,136 +1368,607 @@
       <c r="K30" s="13" t="n"/>
     </row>
     <row r="31">
-      <c r="A31" s="11" t="n"/>
-      <c r="C31" s="12" t="n"/>
-      <c r="D31" s="13" t="n"/>
-      <c r="E31" s="12" t="n"/>
-      <c r="F31" s="13" t="n"/>
-      <c r="G31" s="12" t="n"/>
-      <c r="H31" s="13" t="n"/>
-      <c r="I31" s="12" t="n"/>
-      <c r="J31" s="13" t="n"/>
-      <c r="K31" s="13" t="n"/>
+      <c r="A31" s="11" t="inlineStr">
+        <is>
+          <t>897</t>
+        </is>
+      </c>
+      <c r="B31" s="1" t="inlineStr">
+        <is>
+          <t>JEWELLERY, GOLDSMITHS' AND SILVERSMITHS' WARES, AND OTHER ARTICLES OF PRECIOUS OR SEMI-PRECIOUS MATERIALS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C31" s="8" t="n">
+        <v>21.915697</v>
+      </c>
+      <c r="D31" s="9" t="n">
+        <v>97.9046611813507</v>
+      </c>
+      <c r="E31" s="8" t="n">
+        <v>4.295687</v>
+      </c>
+      <c r="F31" s="9" t="n">
+        <v>99.81759190173106</v>
+      </c>
+      <c r="G31" s="8" t="n">
+        <v>7.22317</v>
+      </c>
+      <c r="H31" s="9" t="n">
+        <v>99.99658056567965</v>
+      </c>
+      <c r="I31" s="8" t="n">
+        <v>4.743872</v>
+      </c>
+      <c r="J31" s="9" t="n">
+        <v>99.87332335555631</v>
+      </c>
+      <c r="K31" s="9" t="n">
+        <v>-0.8129625734461743</v>
+      </c>
     </row>
     <row r="32">
-      <c r="A32" s="11" t="n"/>
-      <c r="C32" s="12" t="n"/>
-      <c r="D32" s="13" t="n"/>
-      <c r="E32" s="12" t="n"/>
-      <c r="F32" s="13" t="n"/>
-      <c r="G32" s="12" t="n"/>
-      <c r="H32" s="13" t="n"/>
-      <c r="I32" s="12" t="n"/>
-      <c r="J32" s="13" t="n"/>
-      <c r="K32" s="13" t="n"/>
+      <c r="A32" s="11" t="inlineStr">
+        <is>
+          <t>931</t>
+        </is>
+      </c>
+      <c r="B32" s="1" t="inlineStr">
+        <is>
+          <t>SPECIAL TRANSACTIONS AND COMMODITIES NOT CLASSIFIED ACCORDING TO KIND</t>
+        </is>
+      </c>
+      <c r="C32" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D32" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="E32" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F32" s="9" t="n">
+        <v>0.1824080982689355</v>
+      </c>
+      <c r="G32" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H32" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="I32" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J32" s="9" t="n">
+        <v>0.1266766444436912</v>
+      </c>
+      <c r="K32" s="9" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
+      </c>
     </row>
     <row r="33">
-      <c r="A33" s="11" t="n"/>
-      <c r="C33" s="12" t="n"/>
-      <c r="D33" s="13" t="n"/>
-      <c r="E33" s="12" t="n"/>
-      <c r="F33" s="13" t="n"/>
-      <c r="G33" s="12" t="n"/>
-      <c r="H33" s="13" t="n"/>
-      <c r="I33" s="12" t="n"/>
-      <c r="J33" s="13" t="n"/>
-      <c r="K33" s="13" t="n"/>
+      <c r="A33" s="11" t="inlineStr">
+        <is>
+          <t>667</t>
+        </is>
+      </c>
+      <c r="B33" s="1" t="inlineStr">
+        <is>
+          <t>PEARLS, PRECIOUS AND SEMI-PRECIOUS STONES, UNWORKED OR WORKED</t>
+        </is>
+      </c>
+      <c r="C33" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D33" s="9" t="n">
+        <v>2.045693375033779</v>
+      </c>
+      <c r="E33" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F33" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G33" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H33" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I33" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J33" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K33" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="34">
-      <c r="A34" s="11" t="n"/>
-      <c r="C34" s="12" t="n"/>
-      <c r="D34" s="13" t="n"/>
-      <c r="E34" s="12" t="n"/>
-      <c r="F34" s="13" t="n"/>
-      <c r="G34" s="12" t="n"/>
-      <c r="H34" s="13" t="n"/>
-      <c r="I34" s="12" t="n"/>
-      <c r="J34" s="13" t="n"/>
-      <c r="K34" s="13" t="n"/>
+      <c r="A34" s="11" t="inlineStr">
+        <is>
+          <t>571</t>
+        </is>
+      </c>
+      <c r="B34" s="1" t="inlineStr">
+        <is>
+          <t>POLYMERS OF ETHYLENE, IN PRIMARY FORMS</t>
+        </is>
+      </c>
+      <c r="C34" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D34" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E34" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F34" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G34" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H34" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I34" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J34" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K34" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="35">
-      <c r="A35" s="11" t="n"/>
-      <c r="C35" s="12" t="n"/>
-      <c r="D35" s="13" t="n"/>
-      <c r="E35" s="12" t="n"/>
-      <c r="F35" s="13" t="n"/>
-      <c r="G35" s="12" t="n"/>
-      <c r="H35" s="13" t="n"/>
-      <c r="I35" s="12" t="n"/>
-      <c r="J35" s="13" t="n"/>
-      <c r="K35" s="13" t="n"/>
+      <c r="A35" s="11" t="inlineStr">
+        <is>
+          <t>612</t>
+        </is>
+      </c>
+      <c r="B35" s="1" t="inlineStr">
+        <is>
+          <t>MANUFACTURES OF LEATHER OR OF COMPOSITION LEATHER, N.E.S.; SADDLERY AND HARNESS</t>
+        </is>
+      </c>
+      <c r="C35" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D35" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E35" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F35" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G35" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H35" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I35" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J35" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K35" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="36">
-      <c r="A36" s="11" t="n"/>
-      <c r="C36" s="12" t="n"/>
-      <c r="D36" s="13" t="n"/>
-      <c r="E36" s="12" t="n"/>
-      <c r="F36" s="13" t="n"/>
-      <c r="G36" s="12" t="n"/>
-      <c r="H36" s="13" t="n"/>
-      <c r="I36" s="12" t="n"/>
-      <c r="J36" s="13" t="n"/>
-      <c r="K36" s="13" t="n"/>
+      <c r="A36" s="11" t="inlineStr">
+        <is>
+          <t>635</t>
+        </is>
+      </c>
+      <c r="B36" s="1" t="inlineStr">
+        <is>
+          <t>WOOD MANUFACTURES, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C36" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D36" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E36" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F36" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G36" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H36" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I36" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J36" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K36" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="37">
-      <c r="A37" s="11" t="n"/>
-      <c r="C37" s="12" t="n"/>
-      <c r="D37" s="13" t="n"/>
-      <c r="E37" s="12" t="n"/>
-      <c r="F37" s="13" t="n"/>
-      <c r="G37" s="12" t="n"/>
-      <c r="H37" s="13" t="n"/>
-      <c r="I37" s="12" t="n"/>
-      <c r="J37" s="13" t="n"/>
-      <c r="K37" s="13" t="n"/>
+      <c r="A37" s="11" t="inlineStr">
+        <is>
+          <t>642</t>
+        </is>
+      </c>
+      <c r="B37" s="1" t="inlineStr">
+        <is>
+          <t>PAPER AND PAPERBOARD, CUT TO SIZE OR SHAPE, AND ARTICLES OF PAPER OR PAPERBOARD</t>
+        </is>
+      </c>
+      <c r="C37" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D37" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E37" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F37" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G37" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H37" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I37" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J37" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K37" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="38">
-      <c r="A38" s="11" t="n"/>
-      <c r="C38" s="12" t="n"/>
-      <c r="D38" s="13" t="n"/>
-      <c r="E38" s="12" t="n"/>
-      <c r="F38" s="13" t="n"/>
-      <c r="G38" s="12" t="n"/>
-      <c r="H38" s="13" t="n"/>
-      <c r="I38" s="12" t="n"/>
-      <c r="J38" s="13" t="n"/>
-      <c r="K38" s="13" t="n"/>
+      <c r="A38" s="11" t="inlineStr">
+        <is>
+          <t>658</t>
+        </is>
+      </c>
+      <c r="B38" s="1" t="inlineStr">
+        <is>
+          <t>MADE-UP ARTICLES, WHOLLY OR CHIEFLY OF TEXTILE MATERIALS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C38" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D38" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E38" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F38" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G38" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H38" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I38" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J38" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K38" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="39">
-      <c r="A39" s="11" t="n"/>
-      <c r="C39" s="12" t="n"/>
-      <c r="D39" s="13" t="n"/>
-      <c r="E39" s="12" t="n"/>
-      <c r="F39" s="13" t="n"/>
-      <c r="G39" s="12" t="n"/>
-      <c r="H39" s="13" t="n"/>
-      <c r="I39" s="12" t="n"/>
-      <c r="J39" s="13" t="n"/>
-      <c r="K39" s="13" t="n"/>
+      <c r="A39" s="11" t="inlineStr">
+        <is>
+          <t>665</t>
+        </is>
+      </c>
+      <c r="B39" s="1" t="inlineStr">
+        <is>
+          <t>GLASSWARE</t>
+        </is>
+      </c>
+      <c r="C39" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D39" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E39" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F39" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G39" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H39" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I39" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J39" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K39" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="40">
-      <c r="A40" s="11" t="n"/>
-      <c r="C40" s="12" t="n"/>
-      <c r="D40" s="13" t="n"/>
-      <c r="E40" s="12" t="n"/>
-      <c r="F40" s="13" t="n"/>
-      <c r="G40" s="12" t="n"/>
-      <c r="H40" s="13" t="n"/>
-      <c r="I40" s="12" t="n"/>
-      <c r="J40" s="13" t="n"/>
-      <c r="K40" s="13" t="n"/>
+      <c r="A40" s="11" t="inlineStr">
+        <is>
+          <t>666</t>
+        </is>
+      </c>
+      <c r="B40" s="1" t="inlineStr">
+        <is>
+          <t>POTTERY</t>
+        </is>
+      </c>
+      <c r="C40" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D40" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E40" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F40" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G40" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H40" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I40" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J40" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K40" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="41">
-      <c r="A41" s="11" t="n"/>
-      <c r="C41" s="12" t="n"/>
-      <c r="D41" s="13" t="n"/>
-      <c r="E41" s="12" t="n"/>
-      <c r="F41" s="13" t="n"/>
-      <c r="G41" s="12" t="n"/>
-      <c r="H41" s="13" t="n"/>
-      <c r="I41" s="12" t="n"/>
-      <c r="J41" s="13" t="n"/>
-      <c r="K41" s="13" t="n"/>
+      <c r="A41" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B41" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C41" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D41" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E41" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F41" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G41" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H41" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I41" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J41" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K41" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="11" t="n"/>
@@ -1136,136 +2000,529 @@
       <c r="K43" s="13" t="n"/>
     </row>
     <row r="44">
-      <c r="A44" s="11" t="n"/>
-      <c r="C44" s="12" t="n"/>
-      <c r="D44" s="13" t="n"/>
-      <c r="E44" s="12" t="n"/>
-      <c r="F44" s="13" t="n"/>
-      <c r="G44" s="12" t="n"/>
-      <c r="H44" s="13" t="n"/>
-      <c r="I44" s="12" t="n"/>
-      <c r="J44" s="13" t="n"/>
-      <c r="K44" s="13" t="n"/>
+      <c r="A44" s="11" t="inlineStr">
+        <is>
+          <t>897</t>
+        </is>
+      </c>
+      <c r="B44" s="1" t="inlineStr">
+        <is>
+          <t>JEWELLERY, GOLDSMITHS' AND SILVERSMITHS' WARES, AND OTHER ARTICLES OF PRECIOUS OR SEMI-PRECIOUS MATERIALS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C44" s="8" t="n">
+        <v>23.449522</v>
+      </c>
+      <c r="D44" s="9" t="n">
+        <v>90.08256417774032</v>
+      </c>
+      <c r="E44" s="8" t="n">
+        <v>11.431561</v>
+      </c>
+      <c r="F44" s="9" t="n">
+        <v>83.14094735445703</v>
+      </c>
+      <c r="G44" s="8" t="n">
+        <v>12.880241</v>
+      </c>
+      <c r="H44" s="9" t="n">
+        <v>76.56592669579803</v>
+      </c>
+      <c r="I44" s="8" t="n">
+        <v>7.963965</v>
+      </c>
+      <c r="J44" s="9" t="n">
+        <v>71.66147094723762</v>
+      </c>
+      <c r="K44" s="9" t="n">
+        <v>4.522412241932905</v>
+      </c>
     </row>
     <row r="45">
-      <c r="A45" s="11" t="n"/>
-      <c r="C45" s="12" t="n"/>
-      <c r="D45" s="13" t="n"/>
-      <c r="E45" s="12" t="n"/>
-      <c r="F45" s="13" t="n"/>
-      <c r="G45" s="12" t="n"/>
-      <c r="H45" s="13" t="n"/>
-      <c r="I45" s="12" t="n"/>
-      <c r="J45" s="13" t="n"/>
-      <c r="K45" s="13" t="n"/>
+      <c r="A45" s="11" t="inlineStr">
+        <is>
+          <t>667</t>
+        </is>
+      </c>
+      <c r="B45" s="1" t="inlineStr">
+        <is>
+          <t>PEARLS, PRECIOUS AND SEMI-PRECIOUS STONES, UNWORKED OR WORKED</t>
+        </is>
+      </c>
+      <c r="C45" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D45" s="9" t="n">
+        <v>1.468752199288667</v>
+      </c>
+      <c r="E45" s="8" t="n">
+        <v>1.154637</v>
+      </c>
+      <c r="F45" s="9" t="n">
+        <v>8.397594521912467</v>
+      </c>
+      <c r="G45" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H45" s="9" t="n">
+        <v>1.947401262565152</v>
+      </c>
+      <c r="I45" s="8" t="n">
+        <v>1.338908</v>
+      </c>
+      <c r="J45" s="9" t="n">
+        <v>12.04778232237636</v>
+      </c>
+      <c r="K45" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="46">
-      <c r="A46" s="11" t="n"/>
-      <c r="C46" s="12" t="n"/>
-      <c r="D46" s="13" t="n"/>
-      <c r="E46" s="12" t="n"/>
-      <c r="F46" s="13" t="n"/>
-      <c r="G46" s="12" t="n"/>
-      <c r="H46" s="13" t="n"/>
-      <c r="I46" s="12" t="n"/>
-      <c r="J46" s="13" t="n"/>
-      <c r="K46" s="13" t="n"/>
+      <c r="A46" s="11" t="inlineStr">
+        <is>
+          <t>885</t>
+        </is>
+      </c>
+      <c r="B46" s="1" t="inlineStr">
+        <is>
+          <t>WATCHES AND CLOCKS</t>
+        </is>
+      </c>
+      <c r="C46" s="8" t="n">
+        <v>0.65396</v>
+      </c>
+      <c r="D46" s="9" t="n">
+        <v>2.512221514352193</v>
+      </c>
+      <c r="E46" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F46" s="9" t="n">
+        <v>0.4424123553705064</v>
+      </c>
+      <c r="G46" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H46" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I46" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J46" s="9" t="n">
+        <v>4.483711655793074</v>
+      </c>
+      <c r="K46" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="47">
-      <c r="A47" s="11" t="n"/>
-      <c r="C47" s="12" t="n"/>
-      <c r="D47" s="13" t="n"/>
-      <c r="E47" s="12" t="n"/>
-      <c r="F47" s="13" t="n"/>
-      <c r="G47" s="12" t="n"/>
-      <c r="H47" s="13" t="n"/>
-      <c r="I47" s="12" t="n"/>
-      <c r="J47" s="13" t="n"/>
-      <c r="K47" s="13" t="n"/>
+      <c r="A47" s="11" t="inlineStr">
+        <is>
+          <t>931</t>
+        </is>
+      </c>
+      <c r="B47" s="1" t="inlineStr">
+        <is>
+          <t>SPECIAL TRANSACTIONS AND COMMODITIES NOT CLASSIFIED ACCORDING TO KIND</t>
+        </is>
+      </c>
+      <c r="C47" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D47" s="9" t="n">
+        <v>1.173939954386945</v>
+      </c>
+      <c r="E47" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F47" s="9" t="n">
+        <v>2.196352247219122</v>
+      </c>
+      <c r="G47" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H47" s="9" t="n">
+        <v>2.91462838965074</v>
+      </c>
+      <c r="I47" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J47" s="9" t="n">
+        <v>3.054039231318468</v>
+      </c>
+      <c r="K47" s="9" t="n">
+        <v>27.33353842459893</v>
+      </c>
     </row>
     <row r="48">
-      <c r="A48" s="11" t="n"/>
-      <c r="C48" s="12" t="n"/>
-      <c r="D48" s="13" t="n"/>
-      <c r="E48" s="12" t="n"/>
-      <c r="F48" s="13" t="n"/>
-      <c r="G48" s="12" t="n"/>
-      <c r="H48" s="13" t="n"/>
-      <c r="I48" s="12" t="n"/>
-      <c r="J48" s="13" t="n"/>
-      <c r="K48" s="13" t="n"/>
+      <c r="A48" s="11" t="inlineStr">
+        <is>
+          <t>778</t>
+        </is>
+      </c>
+      <c r="B48" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRICAL MACHINERY AND APPARATUS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C48" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D48" s="9" t="n">
+        <v>0.1773222106565889</v>
+      </c>
+      <c r="E48" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F48" s="9" t="n">
+        <v>1.171465443107647</v>
+      </c>
+      <c r="G48" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H48" s="9" t="n">
+        <v>0.2394661552538907</v>
+      </c>
+      <c r="I48" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J48" s="9" t="n">
+        <v>1.206408708832603</v>
+      </c>
+      <c r="K48" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="49">
-      <c r="A49" s="11" t="n"/>
-      <c r="C49" s="12" t="n"/>
-      <c r="D49" s="13" t="n"/>
-      <c r="E49" s="12" t="n"/>
-      <c r="F49" s="13" t="n"/>
-      <c r="G49" s="12" t="n"/>
-      <c r="H49" s="13" t="n"/>
-      <c r="I49" s="12" t="n"/>
-      <c r="J49" s="13" t="n"/>
-      <c r="K49" s="13" t="n"/>
+      <c r="A49" s="11" t="inlineStr">
+        <is>
+          <t>666</t>
+        </is>
+      </c>
+      <c r="B49" s="1" t="inlineStr">
+        <is>
+          <t>POTTERY</t>
+        </is>
+      </c>
+      <c r="C49" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D49" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E49" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F49" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G49" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H49" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I49" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J49" s="9" t="n">
+        <v>1.157359437755521</v>
+      </c>
+      <c r="K49" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="50">
-      <c r="A50" s="11" t="n"/>
-      <c r="C50" s="12" t="n"/>
-      <c r="D50" s="13" t="n"/>
-      <c r="E50" s="12" t="n"/>
-      <c r="F50" s="13" t="n"/>
-      <c r="G50" s="12" t="n"/>
-      <c r="H50" s="13" t="n"/>
-      <c r="I50" s="12" t="n"/>
-      <c r="J50" s="13" t="n"/>
-      <c r="K50" s="13" t="n"/>
+      <c r="A50" s="11" t="inlineStr">
+        <is>
+          <t>745</t>
+        </is>
+      </c>
+      <c r="B50" s="1" t="inlineStr">
+        <is>
+          <t>OTHER NON-ELECTRICAL MACHINERY, TOOLS AND MECHANICAL APPARATUS, AND PARTS THEREOF, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C50" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D50" s="9" t="n">
+        <v>0.08580875277705813</v>
+      </c>
+      <c r="E50" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F50" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G50" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H50" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I50" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J50" s="9" t="n">
+        <v>0.8747524928430447</v>
+      </c>
+      <c r="K50" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="51">
-      <c r="A51" s="11" t="n"/>
-      <c r="C51" s="12" t="n"/>
-      <c r="D51" s="13" t="n"/>
-      <c r="E51" s="12" t="n"/>
-      <c r="F51" s="13" t="n"/>
-      <c r="G51" s="12" t="n"/>
-      <c r="H51" s="13" t="n"/>
-      <c r="I51" s="12" t="n"/>
-      <c r="J51" s="13" t="n"/>
-      <c r="K51" s="13" t="n"/>
+      <c r="A51" s="11" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="B51" s="1" t="inlineStr">
+        <is>
+          <t>TELECOMMUNICATIONS EQUIPMENT, N.E.S.; AND PARTS, N.E.S., AND ACCESSORIES OF APPARATUS FALLING WITHIN DIVISION 76</t>
+        </is>
+      </c>
+      <c r="C51" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D51" s="9" t="n">
+        <v>0.1597163766602036</v>
+      </c>
+      <c r="E51" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F51" s="9" t="n">
+        <v>0.110584906516662</v>
+      </c>
+      <c r="G51" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H51" s="9" t="n">
+        <v>0.4287849446622391</v>
+      </c>
+      <c r="I51" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J51" s="9" t="n">
+        <v>0.8464081149503996</v>
+      </c>
+      <c r="K51" s="9" t="n">
+        <v>263.5323671497585</v>
+      </c>
     </row>
     <row r="52">
-      <c r="A52" s="11" t="n"/>
-      <c r="C52" s="12" t="n"/>
-      <c r="D52" s="13" t="n"/>
-      <c r="E52" s="12" t="n"/>
-      <c r="F52" s="13" t="n"/>
-      <c r="G52" s="12" t="n"/>
-      <c r="H52" s="13" t="n"/>
-      <c r="I52" s="12" t="n"/>
-      <c r="J52" s="13" t="n"/>
-      <c r="K52" s="13" t="n"/>
+      <c r="A52" s="11" t="inlineStr">
+        <is>
+          <t>893</t>
+        </is>
+      </c>
+      <c r="B52" s="1" t="inlineStr">
+        <is>
+          <t>ARTICLES, N.E.S. OF PLASTICS</t>
+        </is>
+      </c>
+      <c r="C52" s="8" t="n">
+        <v>0.588584</v>
+      </c>
+      <c r="D52" s="9" t="n">
+        <v>2.261076193962125</v>
+      </c>
+      <c r="E52" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F52" s="9" t="n">
+        <v>0.7993677787074198</v>
+      </c>
+      <c r="G52" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H52" s="9" t="n">
+        <v>0.6768943277420447</v>
+      </c>
+      <c r="I52" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J52" s="9" t="n">
+        <v>0.526611546599732</v>
+      </c>
+      <c r="K52" s="9" t="n">
+        <v>215.6804574141</v>
+      </c>
     </row>
     <row r="53">
-      <c r="A53" s="11" t="n"/>
-      <c r="C53" s="12" t="n"/>
-      <c r="D53" s="13" t="n"/>
-      <c r="E53" s="12" t="n"/>
-      <c r="F53" s="13" t="n"/>
-      <c r="G53" s="12" t="n"/>
-      <c r="H53" s="13" t="n"/>
-      <c r="I53" s="12" t="n"/>
-      <c r="J53" s="13" t="n"/>
-      <c r="K53" s="13" t="n"/>
+      <c r="A53" s="11" t="inlineStr">
+        <is>
+          <t>884</t>
+        </is>
+      </c>
+      <c r="B53" s="1" t="inlineStr">
+        <is>
+          <t>OPTICAL GOODS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C53" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D53" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E53" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F53" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G53" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H53" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I53" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J53" s="9" t="n">
+        <v>0.5065725213403921</v>
+      </c>
+      <c r="K53" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="54">
-      <c r="A54" s="11" t="n"/>
-      <c r="C54" s="12" t="n"/>
-      <c r="D54" s="13" t="n"/>
-      <c r="E54" s="12" t="n"/>
-      <c r="F54" s="13" t="n"/>
-      <c r="G54" s="12" t="n"/>
-      <c r="H54" s="13" t="n"/>
-      <c r="I54" s="12" t="n"/>
-      <c r="J54" s="13" t="n"/>
-      <c r="K54" s="13" t="n"/>
+      <c r="A54" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B54" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C54" s="8" t="n">
+        <v>0.541083</v>
+      </c>
+      <c r="D54" s="9" t="n">
+        <v>2.078598620175894</v>
+      </c>
+      <c r="E54" s="8" t="n">
+        <v>0.514411</v>
+      </c>
+      <c r="F54" s="9" t="n">
+        <v>3.74127539270915</v>
+      </c>
+      <c r="G54" s="8" t="n">
+        <v>2.897981</v>
+      </c>
+      <c r="H54" s="9" t="n">
+        <v>17.2268982243279</v>
+      </c>
+      <c r="I54" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J54" s="9" t="n">
+        <v>3.634883020952794</v>
+      </c>
+      <c r="K54" s="9" t="n">
+        <v>-84.44123905905462</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="11" t="n"/>
@@ -1297,136 +2554,565 @@
       <c r="K56" s="13" t="n"/>
     </row>
     <row r="57">
-      <c r="A57" s="11" t="n"/>
-      <c r="C57" s="12" t="n"/>
-      <c r="D57" s="13" t="n"/>
-      <c r="E57" s="12" t="n"/>
-      <c r="F57" s="13" t="n"/>
-      <c r="G57" s="12" t="n"/>
-      <c r="H57" s="13" t="n"/>
-      <c r="I57" s="12" t="n"/>
-      <c r="J57" s="13" t="n"/>
-      <c r="K57" s="13" t="n"/>
+      <c r="A57" s="11" t="inlineStr">
+        <is>
+          <t>897</t>
+        </is>
+      </c>
+      <c r="B57" s="1" t="inlineStr">
+        <is>
+          <t>JEWELLERY, GOLDSMITHS' AND SILVERSMITHS' WARES, AND OTHER ARTICLES OF PRECIOUS OR SEMI-PRECIOUS MATERIALS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C57" s="8" t="n">
+        <v>6.457526</v>
+      </c>
+      <c r="D57" s="9" t="n">
+        <v>93.57518212127816</v>
+      </c>
+      <c r="E57" s="8" t="n">
+        <v>10.832526</v>
+      </c>
+      <c r="F57" s="9" t="n">
+        <v>48.32249416183592</v>
+      </c>
+      <c r="G57" s="8" t="n">
+        <v>2.619522</v>
+      </c>
+      <c r="H57" s="9" t="n">
+        <v>26.35403203243063</v>
+      </c>
+      <c r="I57" s="8" t="n">
+        <v>3.123716</v>
+      </c>
+      <c r="J57" s="9" t="n">
+        <v>49.09160487094602</v>
+      </c>
+      <c r="K57" s="9" t="n">
+        <v>24.78581946276499</v>
+      </c>
     </row>
     <row r="58">
-      <c r="A58" s="11" t="n"/>
-      <c r="C58" s="12" t="n"/>
-      <c r="D58" s="13" t="n"/>
-      <c r="E58" s="12" t="n"/>
-      <c r="F58" s="13" t="n"/>
-      <c r="G58" s="12" t="n"/>
-      <c r="H58" s="13" t="n"/>
-      <c r="I58" s="12" t="n"/>
-      <c r="J58" s="13" t="n"/>
-      <c r="K58" s="13" t="n"/>
+      <c r="A58" s="11" t="inlineStr">
+        <is>
+          <t>885</t>
+        </is>
+      </c>
+      <c r="B58" s="1" t="inlineStr">
+        <is>
+          <t>WATCHES AND CLOCKS</t>
+        </is>
+      </c>
+      <c r="C58" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D58" s="9" t="n">
+        <v>4.289109704015247</v>
+      </c>
+      <c r="E58" s="8" t="n">
+        <v>10.550124</v>
+      </c>
+      <c r="F58" s="9" t="n">
+        <v>47.06273545031371</v>
+      </c>
+      <c r="G58" s="8" t="n">
+        <v>7.214822</v>
+      </c>
+      <c r="H58" s="9" t="n">
+        <v>72.58562825442398</v>
+      </c>
+      <c r="I58" s="8" t="n">
+        <v>2.248083</v>
+      </c>
+      <c r="J58" s="9" t="n">
+        <v>35.3303572901925</v>
+      </c>
+      <c r="K58" s="9" t="n">
+        <v>-57.18466421960409</v>
+      </c>
     </row>
     <row r="59">
-      <c r="A59" s="11" t="n"/>
-      <c r="C59" s="12" t="n"/>
-      <c r="D59" s="13" t="n"/>
-      <c r="E59" s="12" t="n"/>
-      <c r="F59" s="13" t="n"/>
-      <c r="G59" s="12" t="n"/>
-      <c r="H59" s="13" t="n"/>
-      <c r="I59" s="12" t="n"/>
-      <c r="J59" s="13" t="n"/>
-      <c r="K59" s="13" t="n"/>
+      <c r="A59" s="11" t="inlineStr">
+        <is>
+          <t>667</t>
+        </is>
+      </c>
+      <c r="B59" s="1" t="inlineStr">
+        <is>
+          <t>PEARLS, PRECIOUS AND SEMI-PRECIOUS STONES, UNWORKED OR WORKED</t>
+        </is>
+      </c>
+      <c r="C59" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D59" s="9" t="n">
+        <v>1.558870036586554</v>
+      </c>
+      <c r="E59" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F59" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G59" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H59" s="9" t="n">
+        <v>0.7847288545504061</v>
+      </c>
+      <c r="I59" s="8" t="n">
+        <v>0.6853</v>
+      </c>
+      <c r="J59" s="9" t="n">
+        <v>10.77001776667895</v>
+      </c>
+      <c r="K59" s="9" t="n">
+        <v>876.2108262108262</v>
+      </c>
     </row>
     <row r="60">
-      <c r="A60" s="11" t="n"/>
-      <c r="C60" s="12" t="n"/>
-      <c r="D60" s="13" t="n"/>
-      <c r="E60" s="12" t="n"/>
-      <c r="F60" s="13" t="n"/>
-      <c r="G60" s="12" t="n"/>
-      <c r="H60" s="13" t="n"/>
-      <c r="I60" s="12" t="n"/>
-      <c r="J60" s="13" t="n"/>
-      <c r="K60" s="13" t="n"/>
+      <c r="A60" s="11" t="inlineStr">
+        <is>
+          <t>612</t>
+        </is>
+      </c>
+      <c r="B60" s="1" t="inlineStr">
+        <is>
+          <t>MANUFACTURES OF LEATHER OR OF COMPOSITION LEATHER, N.E.S.; SADDLERY AND HARNESS</t>
+        </is>
+      </c>
+      <c r="C60" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D60" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E60" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F60" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G60" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H60" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I60" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J60" s="9" t="n">
+        <v>4.808020072182535</v>
+      </c>
+      <c r="K60" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="61">
-      <c r="A61" s="11" t="n"/>
-      <c r="C61" s="12" t="n"/>
-      <c r="D61" s="13" t="n"/>
-      <c r="E61" s="12" t="n"/>
-      <c r="F61" s="13" t="n"/>
-      <c r="G61" s="12" t="n"/>
-      <c r="H61" s="13" t="n"/>
-      <c r="I61" s="12" t="n"/>
-      <c r="J61" s="13" t="n"/>
-      <c r="K61" s="13" t="n"/>
+      <c r="A61" s="11" t="inlineStr">
+        <is>
+          <t>931</t>
+        </is>
+      </c>
+      <c r="B61" s="1" t="inlineStr">
+        <is>
+          <t>SPECIAL TRANSACTIONS AND COMMODITIES NOT CLASSIFIED ACCORDING TO KIND</t>
+        </is>
+      </c>
+      <c r="C61" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D61" s="9" t="n">
+        <v>0.2638353048647596</v>
+      </c>
+      <c r="E61" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F61" s="9" t="n">
+        <v>0.1145194638926001</v>
+      </c>
+      <c r="G61" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H61" s="9" t="n">
+        <v>0.2756108585949792</v>
+      </c>
+      <c r="I61" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J61" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K61" s="9" t="n">
+        <v>-100</v>
+      </c>
     </row>
     <row r="62">
-      <c r="A62" s="11" t="n"/>
-      <c r="C62" s="12" t="n"/>
-      <c r="D62" s="13" t="n"/>
-      <c r="E62" s="12" t="n"/>
-      <c r="F62" s="13" t="n"/>
-      <c r="G62" s="12" t="n"/>
-      <c r="H62" s="13" t="n"/>
-      <c r="I62" s="12" t="n"/>
-      <c r="J62" s="13" t="n"/>
-      <c r="K62" s="13" t="n"/>
+      <c r="A62" s="11" t="inlineStr">
+        <is>
+          <t>844</t>
+        </is>
+      </c>
+      <c r="B62" s="1" t="inlineStr">
+        <is>
+          <t>WOMEN'S OR GIRLS' COATS, CAPES, JACKETS, SUITS, TROUSERS, SHORTS, SHIRTS, DRESSES AND SKIRTS, UNDERWEAR, NIGHTWEAR AND SIMILAR ARTICLES, OF TEXTILE FABRICS, KNITTED OR CROCHETED</t>
+        </is>
+      </c>
+      <c r="C62" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D62" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E62" s="8" t="n">
+        <v>0.514785</v>
+      </c>
+      <c r="F62" s="9" t="n">
+        <v>2.296389148486761</v>
+      </c>
+      <c r="G62" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H62" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I62" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J62" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K62" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="63">
-      <c r="A63" s="11" t="n"/>
-      <c r="C63" s="12" t="n"/>
-      <c r="D63" s="13" t="n"/>
-      <c r="E63" s="12" t="n"/>
-      <c r="F63" s="13" t="n"/>
-      <c r="G63" s="12" t="n"/>
-      <c r="H63" s="13" t="n"/>
-      <c r="I63" s="12" t="n"/>
-      <c r="J63" s="13" t="n"/>
-      <c r="K63" s="13" t="n"/>
+      <c r="A63" s="11" t="inlineStr">
+        <is>
+          <t>792</t>
+        </is>
+      </c>
+      <c r="B63" s="1" t="inlineStr">
+        <is>
+          <t>AIRCRAFT AND ASSOCIATED EQUIPMENT; SPACECRAFT (INCLUDING SATELLITES) AND SPACECRAFT LAUNCH VEHICLES; AND PARTS THEREOF</t>
+        </is>
+      </c>
+      <c r="C63" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D63" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E63" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F63" s="9" t="n">
+        <v>1.09146345543479</v>
+      </c>
+      <c r="G63" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H63" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I63" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J63" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K63" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="64">
-      <c r="A64" s="11" t="n"/>
-      <c r="C64" s="12" t="n"/>
-      <c r="D64" s="13" t="n"/>
-      <c r="E64" s="12" t="n"/>
-      <c r="F64" s="13" t="n"/>
-      <c r="G64" s="12" t="n"/>
-      <c r="H64" s="13" t="n"/>
-      <c r="I64" s="12" t="n"/>
-      <c r="J64" s="13" t="n"/>
-      <c r="K64" s="13" t="n"/>
+      <c r="A64" s="11" t="inlineStr">
+        <is>
+          <t>846</t>
+        </is>
+      </c>
+      <c r="B64" s="1" t="inlineStr">
+        <is>
+          <t>CLOTHING ACCESSORIES, OF TEXTILE FABRICS, WHETHER OR NOT KNITTED OR CROCHETED (OTHER THAN THOSE FOR BABIES)</t>
+        </is>
+      </c>
+      <c r="C64" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D64" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E64" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F64" s="9" t="n">
+        <v>1.030496740218984</v>
+      </c>
+      <c r="G64" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H64" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I64" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J64" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K64" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="65">
-      <c r="A65" s="11" t="n"/>
-      <c r="C65" s="12" t="n"/>
-      <c r="D65" s="13" t="n"/>
-      <c r="E65" s="12" t="n"/>
-      <c r="F65" s="13" t="n"/>
-      <c r="G65" s="12" t="n"/>
-      <c r="H65" s="13" t="n"/>
-      <c r="I65" s="12" t="n"/>
-      <c r="J65" s="13" t="n"/>
-      <c r="K65" s="13" t="n"/>
+      <c r="A65" s="11" t="inlineStr">
+        <is>
+          <t>845</t>
+        </is>
+      </c>
+      <c r="B65" s="1" t="inlineStr">
+        <is>
+          <t>ARTICLES OF APPAREL, OF TEXTILE FABRICS, WHETHER OR NOT KNITTED OR CROCHETED, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C65" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D65" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E65" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F65" s="9" t="n">
+        <v>0.08190157981723814</v>
+      </c>
+      <c r="G65" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H65" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I65" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J65" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K65" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="66">
-      <c r="A66" s="11" t="n"/>
-      <c r="C66" s="12" t="n"/>
-      <c r="D66" s="13" t="n"/>
-      <c r="E66" s="12" t="n"/>
-      <c r="F66" s="13" t="n"/>
-      <c r="G66" s="12" t="n"/>
-      <c r="H66" s="13" t="n"/>
-      <c r="I66" s="12" t="n"/>
-      <c r="J66" s="13" t="n"/>
-      <c r="K66" s="13" t="n"/>
+      <c r="A66" s="11" t="inlineStr">
+        <is>
+          <t>571</t>
+        </is>
+      </c>
+      <c r="B66" s="1" t="inlineStr">
+        <is>
+          <t>POLYMERS OF ETHYLENE, IN PRIMARY FORMS</t>
+        </is>
+      </c>
+      <c r="C66" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D66" s="9" t="n">
+        <v>0.3130028332552758</v>
+      </c>
+      <c r="E66" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F66" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G66" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H66" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I66" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J66" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K66" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="67">
-      <c r="A67" s="11" t="n"/>
-      <c r="C67" s="12" t="n"/>
-      <c r="D67" s="13" t="n"/>
-      <c r="E67" s="12" t="n"/>
-      <c r="F67" s="13" t="n"/>
-      <c r="G67" s="12" t="n"/>
-      <c r="H67" s="13" t="n"/>
-      <c r="I67" s="12" t="n"/>
-      <c r="J67" s="13" t="n"/>
-      <c r="K67" s="13" t="n"/>
+      <c r="A67" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B67" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C67" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D67" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E67" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F67" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G67" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H67" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I67" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J67" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K67" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="11" t="n"/>
